--- a/experiment_results/SBFL_ONLY/BankAccountTP/3Bug.xlsx
+++ b/experiment_results/SBFL_ONLY/BankAccountTP/3Bug.xlsx
@@ -28,7 +28,7 @@
     <sheet name="Dice" sheetId="19" r:id="rId19"/>
     <sheet name="Humman" sheetId="20" r:id="rId20"/>
     <sheet name="Wong2" sheetId="21" r:id="rId21"/>
-    <sheet name="Wong3" sheetId="22" r:id="rId22"/>
+    <sheet name="Euclid" sheetId="22" r:id="rId22"/>
     <sheet name="Zoltar" sheetId="23" r:id="rId23"/>
     <sheet name="Rogot2" sheetId="24" r:id="rId24"/>
     <sheet name="Hamming" sheetId="25" r:id="rId25"/>
@@ -46494,10 +46494,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D2">
-        <v>15.18987341772152</v>
+        <v>86.07594936708861</v>
       </c>
       <c r="E2">
         <v>79</v>
@@ -46508,10 +46508,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>3.79746835443038</v>
+        <v>25.31645569620253</v>
       </c>
       <c r="E3">
         <v>79</v>
@@ -46522,10 +46522,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>49.36708860759494</v>
+        <v>6.329113924050633</v>
       </c>
       <c r="E4">
         <v>79</v>
@@ -46539,10 +46539,10 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D5">
-        <v>5.263157894736842</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="E5">
         <v>76</v>
@@ -46553,10 +46553,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>10.52631578947368</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E6">
         <v>76</v>
@@ -46567,10 +46567,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>21.05263157894737</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="E7">
         <v>76</v>
@@ -46584,10 +46584,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>15.18987341772152</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E8">
         <v>79</v>
@@ -46598,10 +46598,10 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>3.79746835443038</v>
+        <v>13.92405063291139</v>
       </c>
       <c r="E9">
         <v>79</v>
@@ -46612,10 +46612,10 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>11.39240506329114</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E10">
         <v>79</v>
@@ -46629,10 +46629,10 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D11">
-        <v>34.21052631578947</v>
+        <v>86.8421052631579</v>
       </c>
       <c r="E11">
         <v>76</v>
@@ -46643,10 +46643,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>6.578947368421052</v>
+        <v>30.26315789473684</v>
       </c>
       <c r="E12">
         <v>76</v>
@@ -46657,10 +46657,10 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>3.947368421052631</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>76</v>
@@ -46674,10 +46674,10 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>5.263157894736842</v>
+        <v>71.05263157894737</v>
       </c>
       <c r="E14">
         <v>76</v>
@@ -46688,10 +46688,10 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>13.1578947368421</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E15">
         <v>76</v>
@@ -46702,10 +46702,10 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>10.52631578947368</v>
+        <v>48.68421052631579</v>
       </c>
       <c r="E16">
         <v>76</v>
@@ -46719,10 +46719,10 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D17">
-        <v>20.25316455696203</v>
+        <v>78.48101265822784</v>
       </c>
       <c r="E17">
         <v>79</v>
@@ -46733,10 +46733,10 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>3.79746835443038</v>
+        <v>24.05063291139241</v>
       </c>
       <c r="E18">
         <v>79</v>
@@ -46747,10 +46747,10 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>32.91139240506329</v>
+        <v>6.329113924050633</v>
       </c>
       <c r="E19">
         <v>79</v>
@@ -46764,10 +46764,10 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>18.9873417721519</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E20">
         <v>79</v>
@@ -46778,10 +46778,10 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>49.36708860759494</v>
+        <v>65.82278481012658</v>
       </c>
       <c r="E21">
         <v>79</v>
@@ -46792,10 +46792,10 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>8.860759493670885</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E22">
         <v>79</v>
@@ -46809,10 +46809,10 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>6.329113924050633</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E23">
         <v>79</v>
@@ -46823,10 +46823,10 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>22.78481012658228</v>
+        <v>32.91139240506329</v>
       </c>
       <c r="E24">
         <v>79</v>
@@ -46837,10 +46837,10 @@
         <v>15</v>
       </c>
       <c r="C25">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D25">
-        <v>34.17721518987342</v>
+        <v>13.92405063291139</v>
       </c>
       <c r="E25">
         <v>79</v>
@@ -46854,10 +46854,10 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2.531645569620253</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E26">
         <v>79</v>
@@ -46868,10 +46868,10 @@
         <v>14</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D27">
-        <v>16.45569620253164</v>
+        <v>35.44303797468354</v>
       </c>
       <c r="E27">
         <v>79</v>
@@ -46882,10 +46882,10 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D28">
-        <v>30.37974683544304</v>
+        <v>89.87341772151899</v>
       </c>
       <c r="E28">
         <v>79</v>
@@ -46899,10 +46899,10 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D29">
-        <v>14.47368421052632</v>
+        <v>80.26315789473685</v>
       </c>
       <c r="E29">
         <v>76</v>
@@ -46913,10 +46913,10 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>17.10526315789474</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E30">
         <v>76</v>
@@ -46927,10 +46927,10 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D31">
-        <v>3.947368421052631</v>
+        <v>10.52631578947368</v>
       </c>
       <c r="E31">
         <v>76</v>
@@ -46944,10 +46944,10 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>3.947368421052631</v>
+        <v>32.89473684210527</v>
       </c>
       <c r="E32">
         <v>76</v>
@@ -46958,10 +46958,10 @@
         <v>11</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>10.52631578947368</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E33">
         <v>76</v>
@@ -46972,10 +46972,10 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>76.31578947368422</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="E34">
         <v>76</v>
@@ -46989,10 +46989,10 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>3.79746835443038</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="E35">
         <v>79</v>
@@ -47003,10 +47003,10 @@
         <v>20</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D36">
-        <v>39.24050632911392</v>
+        <v>77.21518987341773</v>
       </c>
       <c r="E36">
         <v>79</v>
@@ -47017,10 +47017,10 @@
         <v>27</v>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>8.860759493670885</v>
+        <v>70.88607594936708</v>
       </c>
       <c r="E37">
         <v>79</v>
@@ -47034,10 +47034,10 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D38">
-        <v>5.263157894736842</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="E38">
         <v>76</v>
@@ -47048,10 +47048,10 @@
         <v>11</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>10.52631578947368</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E39">
         <v>76</v>
@@ -47062,10 +47062,10 @@
         <v>20</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D40">
-        <v>14.47368421052632</v>
+        <v>67.10526315789474</v>
       </c>
       <c r="E40">
         <v>76</v>
@@ -47079,10 +47079,10 @@
         <v>35</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D41">
-        <v>34.21052631578947</v>
+        <v>50</v>
       </c>
       <c r="E41">
         <v>76</v>
@@ -47093,10 +47093,10 @@
         <v>14</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D42">
-        <v>6.578947368421052</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="E42">
         <v>76</v>
@@ -47107,10 +47107,10 @@
         <v>7</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D43">
-        <v>3.947368421052631</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="E43">
         <v>76</v>
@@ -47124,10 +47124,10 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="D44">
-        <v>5.263157894736842</v>
+        <v>93.42105263157895</v>
       </c>
       <c r="E44">
         <v>76</v>
@@ -47138,10 +47138,10 @@
         <v>11</v>
       </c>
       <c r="C45">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>10.52631578947368</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E45">
         <v>76</v>
@@ -47152,10 +47152,10 @@
         <v>23</v>
       </c>
       <c r="C46">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D46">
-        <v>27.63157894736842</v>
+        <v>60.52631578947368</v>
       </c>
       <c r="E46">
         <v>76</v>
@@ -47169,10 +47169,10 @@
         <v>11</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>3.79746835443038</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="E47">
         <v>79</v>
@@ -47183,10 +47183,10 @@
         <v>38</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>45.56962025316456</v>
+        <v>32.91139240506329</v>
       </c>
       <c r="E48">
         <v>79</v>
@@ -47197,10 +47197,10 @@
         <v>27</v>
       </c>
       <c r="C49">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D49">
-        <v>8.860759493670885</v>
+        <v>70.88607594936708</v>
       </c>
       <c r="E49">
         <v>79</v>
@@ -47214,10 +47214,10 @@
         <v>11</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>12.65822784810127</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E50">
         <v>79</v>
@@ -47228,10 +47228,10 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>40.50632911392405</v>
+        <v>37.9746835443038</v>
       </c>
       <c r="E51">
         <v>79</v>
@@ -47242,10 +47242,10 @@
         <v>15</v>
       </c>
       <c r="C52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>8.860759493670885</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E52">
         <v>79</v>
@@ -47259,10 +47259,10 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>12.65822784810127</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E53">
         <v>79</v>
@@ -47273,10 +47273,10 @@
         <v>31</v>
       </c>
       <c r="C54">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D54">
-        <v>59.49367088607595</v>
+        <v>60.75949367088608</v>
       </c>
       <c r="E54">
         <v>79</v>
@@ -47287,10 +47287,10 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>2.531645569620253</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E55">
         <v>79</v>
@@ -47304,10 +47304,10 @@
         <v>6</v>
       </c>
       <c r="C56">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="D56">
-        <v>11.39240506329114</v>
+        <v>89.87341772151899</v>
       </c>
       <c r="E56">
         <v>79</v>
@@ -47318,10 +47318,10 @@
         <v>42</v>
       </c>
       <c r="C57">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>58.22784810126582</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="E57">
         <v>79</v>
@@ -47332,10 +47332,10 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>12.65822784810127</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E58">
         <v>79</v>
@@ -47349,10 +47349,10 @@
         <v>44</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D59">
-        <v>5.263157894736842</v>
+        <v>48.68421052631579</v>
       </c>
       <c r="E59">
         <v>76</v>
@@ -47363,10 +47363,10 @@
         <v>11</v>
       </c>
       <c r="C60">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>15.78947368421053</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E60">
         <v>76</v>
@@ -47377,10 +47377,10 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D61">
-        <v>31.57894736842105</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="E61">
         <v>76</v>
@@ -47394,10 +47394,10 @@
         <v>46</v>
       </c>
       <c r="C62">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D62">
-        <v>28.94736842105263</v>
+        <v>72.36842105263158</v>
       </c>
       <c r="E62">
         <v>76</v>
@@ -47408,10 +47408,10 @@
         <v>14</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D63">
-        <v>6.578947368421052</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="E63">
         <v>76</v>
@@ -47422,10 +47422,10 @@
         <v>7</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>3.947368421052631</v>
+        <v>28.94736842105263</v>
       </c>
       <c r="E64">
         <v>76</v>
@@ -47439,10 +47439,10 @@
         <v>11</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>12.65822784810127</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="E65">
         <v>79</v>
@@ -47453,10 +47453,10 @@
         <v>14</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D66">
-        <v>3.79746835443038</v>
+        <v>18.9873417721519</v>
       </c>
       <c r="E66">
         <v>79</v>
@@ -47467,10 +47467,10 @@
         <v>27</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D67">
-        <v>17.72151898734177</v>
+        <v>79.74683544303798</v>
       </c>
       <c r="E67">
         <v>79</v>
@@ -47484,10 +47484,10 @@
         <v>11</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D68">
-        <v>18.9873417721519</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="E68">
         <v>79</v>
@@ -47498,10 +47498,10 @@
         <v>49</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D69">
-        <v>7.59493670886076</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="E69">
         <v>79</v>
@@ -47512,10 +47512,10 @@
         <v>15</v>
       </c>
       <c r="C70">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>8.860759493670885</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E70">
         <v>79</v>
@@ -47529,10 +47529,10 @@
         <v>19</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D71">
-        <v>5.263157894736842</v>
+        <v>77.63157894736842</v>
       </c>
       <c r="E71">
         <v>76</v>
@@ -47543,10 +47543,10 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D72">
-        <v>14.47368421052632</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E72">
         <v>76</v>
@@ -47557,10 +47557,10 @@
         <v>49</v>
       </c>
       <c r="C73">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D73">
-        <v>23.68421052631579</v>
+        <v>6.578947368421052</v>
       </c>
       <c r="E73">
         <v>76</v>
@@ -47574,10 +47574,10 @@
         <v>35</v>
       </c>
       <c r="C74">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D74">
-        <v>48.10126582278481</v>
+        <v>37.9746835443038</v>
       </c>
       <c r="E74">
         <v>79</v>
@@ -47588,10 +47588,10 @@
         <v>14</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D75">
-        <v>3.79746835443038</v>
+        <v>17.72151898734177</v>
       </c>
       <c r="E75">
         <v>79</v>
@@ -47602,10 +47602,10 @@
         <v>27</v>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D76">
-        <v>15.18987341772152</v>
+        <v>79.74683544303798</v>
       </c>
       <c r="E76">
         <v>79</v>
@@ -47619,10 +47619,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D77">
-        <v>12.65822784810127</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E77">
         <v>79</v>
@@ -47633,10 +47633,10 @@
         <v>38</v>
       </c>
       <c r="C78">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D78">
-        <v>45.56962025316456</v>
+        <v>29.11392405063291</v>
       </c>
       <c r="E78">
         <v>79</v>
@@ -47647,10 +47647,10 @@
         <v>15</v>
       </c>
       <c r="C79">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>8.860759493670885</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E79">
         <v>79</v>
@@ -47664,10 +47664,10 @@
         <v>54</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>6.329113924050633</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E80">
         <v>79</v>
@@ -47678,10 +47678,10 @@
         <v>14</v>
       </c>
       <c r="C81">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D81">
-        <v>16.45569620253164</v>
+        <v>45.56962025316456</v>
       </c>
       <c r="E81">
         <v>79</v>
@@ -47692,10 +47692,10 @@
         <v>27</v>
       </c>
       <c r="C82">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D82">
-        <v>27.84810126582278</v>
+        <v>83.54430379746836</v>
       </c>
       <c r="E82">
         <v>79</v>
@@ -47709,10 +47709,10 @@
         <v>56</v>
       </c>
       <c r="C83">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D83">
-        <v>18.9873417721519</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="E83">
         <v>79</v>
@@ -47723,10 +47723,10 @@
         <v>14</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D84">
-        <v>3.79746835443038</v>
+        <v>15.18987341772152</v>
       </c>
       <c r="E84">
         <v>79</v>
@@ -47737,10 +47737,10 @@
         <v>15</v>
       </c>
       <c r="C85">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>24.05063291139241</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E85">
         <v>79</v>
@@ -47754,10 +47754,10 @@
         <v>11</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D86">
-        <v>12.65822784810127</v>
+        <v>8.860759493670885</v>
       </c>
       <c r="E86">
         <v>79</v>
@@ -47768,10 +47768,10 @@
         <v>20</v>
       </c>
       <c r="C87">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D87">
-        <v>41.77215189873418</v>
+        <v>82.27848101265823</v>
       </c>
       <c r="E87">
         <v>79</v>
@@ -47782,10 +47782,10 @@
         <v>15</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D88">
-        <v>2.531645569620253</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E88">
         <v>79</v>
@@ -47799,10 +47799,10 @@
         <v>44</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D89">
-        <v>5.263157894736842</v>
+        <v>48.68421052631579</v>
       </c>
       <c r="E89">
         <v>76</v>
@@ -47813,10 +47813,10 @@
         <v>11</v>
       </c>
       <c r="C90">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>15.78947368421053</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E90">
         <v>76</v>
@@ -47827,10 +47827,10 @@
         <v>20</v>
       </c>
       <c r="C91">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D91">
-        <v>28.94736842105263</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="E91">
         <v>76</v>
@@ -47844,10 +47844,10 @@
         <v>6</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D92">
-        <v>5.263157894736842</v>
+        <v>60.52631578947368</v>
       </c>
       <c r="E92">
         <v>76</v>
@@ -47858,10 +47858,10 @@
         <v>60</v>
       </c>
       <c r="C93">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D93">
-        <v>9.210526315789473</v>
+        <v>40.78947368421053</v>
       </c>
       <c r="E93">
         <v>76</v>
@@ -47872,10 +47872,10 @@
         <v>42</v>
       </c>
       <c r="C94">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D94">
-        <v>25</v>
+        <v>9.210526315789473</v>
       </c>
       <c r="E94">
         <v>76</v>
@@ -47889,10 +47889,10 @@
         <v>6</v>
       </c>
       <c r="C95">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D95">
-        <v>15.18987341772152</v>
+        <v>86.07594936708861</v>
       </c>
       <c r="E95">
         <v>79</v>
@@ -47903,10 +47903,10 @@
         <v>7</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D96">
-        <v>3.79746835443038</v>
+        <v>25.31645569620253</v>
       </c>
       <c r="E96">
         <v>79</v>
@@ -47917,10 +47917,10 @@
         <v>62</v>
       </c>
       <c r="C97">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D97">
-        <v>65.82278481012658</v>
+        <v>22.78481012658228</v>
       </c>
       <c r="E97">
         <v>79</v>
@@ -47934,10 +47934,10 @@
         <v>30</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D98">
-        <v>3.947368421052631</v>
+        <v>31.57894736842105</v>
       </c>
       <c r="E98">
         <v>76</v>
@@ -47948,10 +47948,10 @@
         <v>11</v>
       </c>
       <c r="C99">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>10.52631578947368</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E99">
         <v>76</v>
@@ -47962,10 +47962,10 @@
         <v>20</v>
       </c>
       <c r="C100">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D100">
-        <v>17.10526315789474</v>
+        <v>65.78947368421053</v>
       </c>
       <c r="E100">
         <v>76</v>
@@ -47979,10 +47979,10 @@
         <v>6</v>
       </c>
       <c r="C101">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D101">
-        <v>14.47368421052632</v>
+        <v>59.21052631578947</v>
       </c>
       <c r="E101">
         <v>76</v>
@@ -47993,10 +47993,10 @@
         <v>11</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D102">
-        <v>7.894736842105263</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E102">
         <v>76</v>
@@ -48007,10 +48007,10 @@
         <v>49</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D103">
-        <v>10.52631578947368</v>
+        <v>7.894736842105263</v>
       </c>
       <c r="E103">
         <v>76</v>
@@ -48024,10 +48024,10 @@
         <v>30</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="D104">
-        <v>3.947368421052631</v>
+        <v>35.52631578947368</v>
       </c>
       <c r="E104">
         <v>76</v>
@@ -48038,10 +48038,10 @@
         <v>11</v>
       </c>
       <c r="C105">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D105">
-        <v>10.52631578947368</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E105">
         <v>76</v>
@@ -48052,10 +48052,10 @@
         <v>23</v>
       </c>
       <c r="C106">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D106">
-        <v>25</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="E106">
         <v>76</v>
@@ -48069,10 +48069,10 @@
         <v>6</v>
       </c>
       <c r="C107">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D107">
-        <v>15.78947368421053</v>
+        <v>85.52631578947368</v>
       </c>
       <c r="E107">
         <v>76</v>
@@ -48083,10 +48083,10 @@
         <v>11</v>
       </c>
       <c r="C108">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D108">
-        <v>18.42105263157895</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E108">
         <v>76</v>
@@ -48097,10 +48097,10 @@
         <v>7</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D109">
-        <v>3.947368421052631</v>
+        <v>28.94736842105263</v>
       </c>
       <c r="E109">
         <v>76</v>
@@ -48114,10 +48114,10 @@
         <v>6</v>
       </c>
       <c r="C110">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D110">
-        <v>11.39240506329114</v>
+        <v>86.07594936708861</v>
       </c>
       <c r="E110">
         <v>79</v>
@@ -48128,10 +48128,10 @@
         <v>42</v>
       </c>
       <c r="C111">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D111">
-        <v>45.56962025316456</v>
+        <v>11.39240506329114</v>
       </c>
       <c r="E111">
         <v>79</v>
@@ -48142,10 +48142,10 @@
         <v>62</v>
       </c>
       <c r="C112">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D112">
-        <v>20.25316455696203</v>
+        <v>29.11392405063291</v>
       </c>
       <c r="E112">
         <v>79</v>
@@ -48159,10 +48159,10 @@
         <v>10</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D113">
-        <v>5.263157894736842</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="E113">
         <v>76</v>
@@ -48173,10 +48173,10 @@
         <v>11</v>
       </c>
       <c r="C114">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D114">
-        <v>10.52631578947368</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E114">
         <v>76</v>
@@ -48187,10 +48187,10 @@
         <v>31</v>
       </c>
       <c r="C115">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D115">
-        <v>69.73684210526315</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="E115">
         <v>76</v>
@@ -48204,10 +48204,10 @@
         <v>54</v>
       </c>
       <c r="C116">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>8.860759493670885</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E116">
         <v>79</v>
@@ -48218,10 +48218,10 @@
         <v>14</v>
       </c>
       <c r="C117">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D117">
-        <v>18.9873417721519</v>
+        <v>48.10126582278481</v>
       </c>
       <c r="E117">
         <v>79</v>
@@ -48232,10 +48232,10 @@
         <v>15</v>
       </c>
       <c r="C118">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D118">
-        <v>48.10126582278481</v>
+        <v>18.9873417721519</v>
       </c>
       <c r="E118">
         <v>79</v>
@@ -48249,10 +48249,10 @@
         <v>44</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D119">
-        <v>5.263157894736842</v>
+        <v>48.68421052631579</v>
       </c>
       <c r="E119">
         <v>76</v>
@@ -48263,10 +48263,10 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D120">
-        <v>15.78947368421053</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E120">
         <v>76</v>
@@ -48277,10 +48277,10 @@
         <v>38</v>
       </c>
       <c r="C121">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D121">
-        <v>35.52631578947368</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="E121">
         <v>76</v>
@@ -48294,10 +48294,10 @@
         <v>19</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="D122">
-        <v>5.263157894736842</v>
+        <v>77.63157894736842</v>
       </c>
       <c r="E122">
         <v>76</v>
@@ -48308,10 +48308,10 @@
         <v>11</v>
       </c>
       <c r="C123">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>14.47368421052632</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E123">
         <v>76</v>
@@ -48322,10 +48322,10 @@
         <v>23</v>
       </c>
       <c r="C124">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D124">
-        <v>30.26315789473684</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="E124">
         <v>76</v>
@@ -48339,10 +48339,10 @@
         <v>11</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125">
-        <v>3.79746835443038</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="E125">
         <v>79</v>
@@ -48353,10 +48353,10 @@
         <v>23</v>
       </c>
       <c r="C126">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D126">
-        <v>21.51898734177215</v>
+        <v>65.82278481012658</v>
       </c>
       <c r="E126">
         <v>79</v>
@@ -48367,10 +48367,10 @@
         <v>27</v>
       </c>
       <c r="C127">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="D127">
-        <v>8.860759493670885</v>
+        <v>74.68354430379746</v>
       </c>
       <c r="E127">
         <v>79</v>
@@ -48384,10 +48384,10 @@
         <v>11</v>
       </c>
       <c r="C128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D128">
-        <v>3.79746835443038</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="E128">
         <v>79</v>
@@ -48398,10 +48398,10 @@
         <v>31</v>
       </c>
       <c r="C129">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D129">
-        <v>58.22784810126582</v>
+        <v>59.49367088607595</v>
       </c>
       <c r="E129">
         <v>79</v>
@@ -48412,10 +48412,10 @@
         <v>27</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D130">
-        <v>8.860759493670885</v>
+        <v>70.88607594936708</v>
       </c>
       <c r="E130">
         <v>79</v>
@@ -48429,10 +48429,10 @@
         <v>11</v>
       </c>
       <c r="C131">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>23.68421052631579</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="E131">
         <v>76</v>
@@ -48443,10 +48443,10 @@
         <v>14</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D132">
-        <v>6.578947368421052</v>
+        <v>32.89473684210527</v>
       </c>
       <c r="E132">
         <v>76</v>
@@ -48457,10 +48457,10 @@
         <v>7</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="D133">
-        <v>3.947368421052631</v>
+        <v>27.63157894736842</v>
       </c>
       <c r="E133">
         <v>76</v>
@@ -48474,10 +48474,10 @@
         <v>44</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D134">
-        <v>5.263157894736842</v>
+        <v>48.68421052631579</v>
       </c>
       <c r="E134">
         <v>76</v>
@@ -48488,10 +48488,10 @@
         <v>11</v>
       </c>
       <c r="C135">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>15.78947368421053</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E135">
         <v>76</v>
@@ -48502,10 +48502,10 @@
         <v>31</v>
       </c>
       <c r="C136">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D136">
-        <v>36.84210526315789</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="E136">
         <v>76</v>
@@ -48519,10 +48519,10 @@
         <v>44</v>
       </c>
       <c r="C137">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D137">
-        <v>5.263157894736842</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="E137">
         <v>76</v>
@@ -48533,10 +48533,10 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D138">
-        <v>15.78947368421053</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E138">
         <v>76</v>
@@ -48547,10 +48547,10 @@
         <v>23</v>
       </c>
       <c r="C139">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D139">
-        <v>11.84210526315789</v>
+        <v>25</v>
       </c>
       <c r="E139">
         <v>76</v>
@@ -48564,10 +48564,10 @@
         <v>19</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D140">
-        <v>5.263157894736842</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="E140">
         <v>76</v>
@@ -48578,10 +48578,10 @@
         <v>11</v>
       </c>
       <c r="C141">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D141">
-        <v>17.10526315789474</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E141">
         <v>76</v>
@@ -48592,10 +48592,10 @@
         <v>14</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D142">
-        <v>7.894736842105263</v>
+        <v>17.10526315789474</v>
       </c>
       <c r="E142">
         <v>76</v>
@@ -48623,10 +48623,10 @@
         <v>49</v>
       </c>
       <c r="C144">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144">
-        <v>11.39240506329114</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="E144">
         <v>79</v>
@@ -48637,10 +48637,10 @@
         <v>27</v>
       </c>
       <c r="C145">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D145">
-        <v>16.45569620253164</v>
+        <v>77.21518987341773</v>
       </c>
       <c r="E145">
         <v>79</v>
@@ -48654,10 +48654,10 @@
         <v>19</v>
       </c>
       <c r="C146">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D146">
-        <v>5.263157894736842</v>
+        <v>71.05263157894737</v>
       </c>
       <c r="E146">
         <v>76</v>
@@ -48668,10 +48668,10 @@
         <v>11</v>
       </c>
       <c r="C147">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D147">
-        <v>14.47368421052632</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E147">
         <v>76</v>
@@ -48682,10 +48682,10 @@
         <v>31</v>
       </c>
       <c r="C148">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D148">
-        <v>53.94736842105263</v>
+        <v>51.31578947368421</v>
       </c>
       <c r="E148">
         <v>76</v>
@@ -48699,10 +48699,10 @@
         <v>6</v>
       </c>
       <c r="C149">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D149">
-        <v>5.263157894736842</v>
+        <v>75</v>
       </c>
       <c r="E149">
         <v>76</v>
@@ -48713,10 +48713,10 @@
         <v>11</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>7.894736842105263</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E150">
         <v>76</v>
@@ -48727,10 +48727,10 @@
         <v>38</v>
       </c>
       <c r="C151">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D151">
-        <v>36.84210526315789</v>
+        <v>46.05263157894737</v>
       </c>
       <c r="E151">
         <v>76</v>
@@ -48744,10 +48744,10 @@
         <v>19</v>
       </c>
       <c r="C152">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D152">
-        <v>5.063291139240507</v>
+        <v>39.24050632911392</v>
       </c>
       <c r="E152">
         <v>79</v>
@@ -48758,10 +48758,10 @@
         <v>42</v>
       </c>
       <c r="C153">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D153">
-        <v>51.89873417721519</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="E153">
         <v>79</v>
@@ -48772,10 +48772,10 @@
         <v>8</v>
       </c>
       <c r="C154">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D154">
-        <v>16.45569620253164</v>
+        <v>5.063291139240507</v>
       </c>
       <c r="E154">
         <v>79</v>
@@ -48789,10 +48789,10 @@
         <v>6</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D155">
-        <v>5.263157894736842</v>
+        <v>60.52631578947368</v>
       </c>
       <c r="E155">
         <v>76</v>
@@ -48803,10 +48803,10 @@
         <v>11</v>
       </c>
       <c r="C156">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>18.42105263157895</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E156">
         <v>76</v>
@@ -48817,10 +48817,10 @@
         <v>23</v>
       </c>
       <c r="C157">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D157">
-        <v>13.1578947368421</v>
+        <v>32.89473684210527</v>
       </c>
       <c r="E157">
         <v>76</v>
@@ -48834,10 +48834,10 @@
         <v>6</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D158">
-        <v>5.263157894736842</v>
+        <v>71.05263157894737</v>
       </c>
       <c r="E158">
         <v>76</v>
@@ -48848,10 +48848,10 @@
         <v>11</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D159">
-        <v>7.894736842105263</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E159">
         <v>76</v>
@@ -48862,10 +48862,10 @@
         <v>12</v>
       </c>
       <c r="C160">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D160">
-        <v>28.94736842105263</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="E160">
         <v>76</v>
@@ -48879,10 +48879,10 @@
         <v>6</v>
       </c>
       <c r="C161">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D161">
-        <v>25</v>
+        <v>98.68421052631578</v>
       </c>
       <c r="E161">
         <v>76</v>
@@ -48893,10 +48893,10 @@
         <v>14</v>
       </c>
       <c r="C162">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D162">
-        <v>6.578947368421052</v>
+        <v>32.89473684210527</v>
       </c>
       <c r="E162">
         <v>76</v>
@@ -48907,10 +48907,10 @@
         <v>7</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D163">
-        <v>3.947368421052631</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="E163">
         <v>76</v>
@@ -48924,10 +48924,10 @@
         <v>10</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D164">
-        <v>5.263157894736842</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="E164">
         <v>76</v>
@@ -48938,10 +48938,10 @@
         <v>11</v>
       </c>
       <c r="C165">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D165">
-        <v>15.78947368421053</v>
+        <v>3.947368421052631</v>
       </c>
       <c r="E165">
         <v>76</v>
@@ -48952,10 +48952,10 @@
         <v>38</v>
       </c>
       <c r="C166">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D166">
-        <v>18.42105263157895</v>
+        <v>17.10526315789474</v>
       </c>
       <c r="E166">
         <v>76</v>
@@ -48969,10 +48969,10 @@
         <v>17</v>
       </c>
       <c r="C167">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="D167">
-        <v>20.25316455696203</v>
+        <v>78.48101265822784</v>
       </c>
       <c r="E167">
         <v>79</v>
@@ -48983,10 +48983,10 @@
         <v>7</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D168">
-        <v>3.79746835443038</v>
+        <v>24.05063291139241</v>
       </c>
       <c r="E168">
         <v>79</v>
@@ -48997,10 +48997,10 @@
         <v>62</v>
       </c>
       <c r="C169">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D169">
-        <v>51.89873417721519</v>
+        <v>21.51898734177215</v>
       </c>
       <c r="E169">
         <v>79</v>
@@ -49014,10 +49014,10 @@
         <v>6</v>
       </c>
       <c r="C170">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D170">
-        <v>5.263157894736842</v>
+        <v>69.73684210526315</v>
       </c>
       <c r="E170">
         <v>76</v>
@@ -49028,10 +49028,10 @@
         <v>11</v>
       </c>
       <c r="C171">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>7.894736842105263</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E171">
         <v>76</v>
@@ -49042,10 +49042,10 @@
         <v>31</v>
       </c>
       <c r="C172">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D172">
-        <v>18.42105263157895</v>
+        <v>35.52631578947368</v>
       </c>
       <c r="E172">
         <v>76</v>
@@ -49059,10 +49059,10 @@
         <v>25</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>2.631578947368421</v>
+        <v>1.31578947368421</v>
       </c>
       <c r="E173">
         <v>76</v>
@@ -49073,10 +49073,10 @@
         <v>14</v>
       </c>
       <c r="C174">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D174">
-        <v>19.73684210526316</v>
+        <v>50</v>
       </c>
       <c r="E174">
         <v>76</v>
@@ -49087,10 +49087,10 @@
         <v>7</v>
       </c>
       <c r="C175">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D175">
-        <v>13.1578947368421</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="E175">
         <v>76</v>
@@ -49104,10 +49104,10 @@
         <v>54</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>6.578947368421052</v>
+        <v>1.31578947368421</v>
       </c>
       <c r="E176">
         <v>76</v>
@@ -49118,10 +49118,10 @@
         <v>14</v>
       </c>
       <c r="C177">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D177">
-        <v>19.73684210526316</v>
+        <v>55.26315789473685</v>
       </c>
       <c r="E177">
         <v>76</v>
@@ -49132,10 +49132,10 @@
         <v>7</v>
       </c>
       <c r="C178">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D178">
-        <v>13.1578947368421</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="E178">
         <v>76</v>
@@ -49149,10 +49149,10 @@
         <v>46</v>
       </c>
       <c r="C179">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D179">
-        <v>27.84810126582278</v>
+        <v>67.08860759493672</v>
       </c>
       <c r="E179">
         <v>79</v>
@@ -49163,10 +49163,10 @@
         <v>14</v>
       </c>
       <c r="C180">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D180">
-        <v>3.79746835443038</v>
+        <v>20.25316455696203</v>
       </c>
       <c r="E180">
         <v>79</v>
@@ -49177,10 +49177,10 @@
         <v>27</v>
       </c>
       <c r="C181">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="D181">
-        <v>15.18987341772152</v>
+        <v>79.74683544303798</v>
       </c>
       <c r="E181">
         <v>79</v>
@@ -49194,10 +49194,10 @@
         <v>17</v>
       </c>
       <c r="C182">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D182">
-        <v>54.43037974683544</v>
+        <v>77.21518987341773</v>
       </c>
       <c r="E182">
         <v>79</v>
@@ -49208,10 +49208,10 @@
         <v>42</v>
       </c>
       <c r="C183">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D183">
-        <v>46.83544303797468</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="E183">
         <v>79</v>
@@ -49222,10 +49222,10 @@
         <v>8</v>
       </c>
       <c r="C184">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>8.860759493670885</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E184">
         <v>79</v>
@@ -49239,10 +49239,10 @@
         <v>19</v>
       </c>
       <c r="C185">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D185">
-        <v>5.263157894736842</v>
+        <v>81.57894736842105</v>
       </c>
       <c r="E185">
         <v>76</v>
@@ -49253,10 +49253,10 @@
         <v>11</v>
       </c>
       <c r="C186">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>14.47368421052632</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E186">
         <v>76</v>
@@ -49267,10 +49267,10 @@
         <v>38</v>
       </c>
       <c r="C187">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D187">
-        <v>18.42105263157895</v>
+        <v>40.78947368421053</v>
       </c>
       <c r="E187">
         <v>76</v>
@@ -49284,10 +49284,10 @@
         <v>19</v>
       </c>
       <c r="C188">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D188">
-        <v>5.063291139240507</v>
+        <v>48.10126582278481</v>
       </c>
       <c r="E188">
         <v>79</v>
@@ -49298,10 +49298,10 @@
         <v>42</v>
       </c>
       <c r="C189">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D189">
-        <v>41.77215189873418</v>
+        <v>12.65822784810127</v>
       </c>
       <c r="E189">
         <v>79</v>
@@ -49312,10 +49312,10 @@
         <v>62</v>
       </c>
       <c r="C190">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D190">
-        <v>21.51898734177215</v>
+        <v>44.30379746835442</v>
       </c>
       <c r="E190">
         <v>79</v>
@@ -49329,10 +49329,10 @@
         <v>56</v>
       </c>
       <c r="C191">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D191">
-        <v>12.65822784810127</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="E191">
         <v>79</v>
@@ -49343,10 +49343,10 @@
         <v>14</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D192">
-        <v>3.79746835443038</v>
+        <v>20.25316455696203</v>
       </c>
       <c r="E192">
         <v>79</v>
@@ -49357,10 +49357,10 @@
         <v>27</v>
       </c>
       <c r="C193">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D193">
-        <v>21.51898734177215</v>
+        <v>86.07594936708861</v>
       </c>
       <c r="E193">
         <v>79</v>
@@ -49374,10 +49374,10 @@
         <v>19</v>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D194">
-        <v>5.263157894736842</v>
+        <v>71.05263157894737</v>
       </c>
       <c r="E194">
         <v>76</v>
@@ -49388,10 +49388,10 @@
         <v>11</v>
       </c>
       <c r="C195">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>14.47368421052632</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E195">
         <v>76</v>
@@ -49402,10 +49402,10 @@
         <v>12</v>
       </c>
       <c r="C196">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D196">
-        <v>53.94736842105263</v>
+        <v>28.94736842105263</v>
       </c>
       <c r="E196">
         <v>76</v>
@@ -49419,10 +49419,10 @@
         <v>30</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D197">
-        <v>3.947368421052631</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="E197">
         <v>76</v>
@@ -49433,10 +49433,10 @@
         <v>11</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>10.52631578947368</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E198">
         <v>76</v>
@@ -49447,10 +49447,10 @@
         <v>12</v>
       </c>
       <c r="C199">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D199">
-        <v>15.78947368421053</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="E199">
         <v>76</v>
@@ -49464,10 +49464,10 @@
         <v>6</v>
       </c>
       <c r="C200">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D200">
-        <v>7.894736842105263</v>
+        <v>71.05263157894737</v>
       </c>
       <c r="E200">
         <v>76</v>
@@ -49478,10 +49478,10 @@
         <v>11</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>3.947368421052631</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E201">
         <v>76</v>
@@ -49492,10 +49492,10 @@
         <v>20</v>
       </c>
       <c r="C202">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D202">
-        <v>31.57894736842105</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="E202">
         <v>76</v>
@@ -49509,10 +49509,10 @@
         <v>17</v>
       </c>
       <c r="C203">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D203">
-        <v>40.50632911392405</v>
+        <v>78.48101265822784</v>
       </c>
       <c r="E203">
         <v>79</v>
@@ -49523,10 +49523,10 @@
         <v>42</v>
       </c>
       <c r="C204">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D204">
-        <v>34.17721518987342</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="E204">
         <v>79</v>
@@ -49537,10 +49537,10 @@
         <v>62</v>
       </c>
       <c r="C205">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D205">
-        <v>13.92405063291139</v>
+        <v>27.84810126582278</v>
       </c>
       <c r="E205">
         <v>79</v>
@@ -49554,10 +49554,10 @@
         <v>11</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>3.79746835443038</v>
+        <v>2.531645569620253</v>
       </c>
       <c r="E206">
         <v>79</v>
@@ -49568,10 +49568,10 @@
         <v>12</v>
       </c>
       <c r="C207">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D207">
-        <v>37.9746835443038</v>
+        <v>53.16455696202531</v>
       </c>
       <c r="E207">
         <v>79</v>
@@ -49582,10 +49582,10 @@
         <v>27</v>
       </c>
       <c r="C208">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D208">
-        <v>8.860759493670885</v>
+        <v>70.88607594936708</v>
       </c>
       <c r="E208">
         <v>79</v>
@@ -49599,10 +49599,10 @@
         <v>56</v>
       </c>
       <c r="C209">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D209">
-        <v>23.68421052631579</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="E209">
         <v>76</v>
@@ -49613,10 +49613,10 @@
         <v>14</v>
       </c>
       <c r="C210">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D210">
-        <v>6.578947368421052</v>
+        <v>34.21052631578947</v>
       </c>
       <c r="E210">
         <v>76</v>
@@ -49627,10 +49627,10 @@
         <v>7</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D211">
-        <v>3.947368421052631</v>
+        <v>28.94736842105263</v>
       </c>
       <c r="E211">
         <v>76</v>
@@ -49644,10 +49644,10 @@
         <v>30</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D212">
-        <v>3.947368421052631</v>
+        <v>23.68421052631579</v>
       </c>
       <c r="E212">
         <v>76</v>
@@ -49658,10 +49658,10 @@
         <v>11</v>
       </c>
       <c r="C213">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>10.52631578947368</v>
+        <v>2.631578947368421</v>
       </c>
       <c r="E213">
         <v>76</v>
@@ -49672,10 +49672,10 @@
         <v>38</v>
       </c>
       <c r="C214">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D214">
-        <v>27.63157894736842</v>
+        <v>42.10526315789473</v>
       </c>
       <c r="E214">
         <v>76</v>
@@ -49689,10 +49689,10 @@
         <v>46</v>
       </c>
       <c r="C215">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="D215">
-        <v>17.72151898734177</v>
+        <v>64.55696202531645</v>
       </c>
       <c r="E215">
         <v>79</v>
@@ -49703,10 +49703,10 @@
         <v>14</v>
       </c>
       <c r="C216">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D216">
-        <v>10.12658227848101</v>
+        <v>17.72151898734177</v>
       </c>
       <c r="E216">
         <v>79</v>
@@ -49717,10 +49717,10 @@
         <v>15</v>
       </c>
       <c r="C217">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>18.9873417721519</v>
+        <v>1.265822784810127</v>
       </c>
       <c r="E217">
         <v>79</v>
